--- a/STUDY/1. FrontEnd/4. 학습스케쥴/새 폴더/학습스케쥴_강보현.xlsx
+++ b/STUDY/1. FrontEnd/4. 학습스케쥴/새 폴더/학습스케쥴_강보현.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강보현\Desktop\프론트엔드 공부\피터장 스터디\4. 학습스케쥴\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강보현\Desktop\프론트엔드\스터디\4. 학습스케쥴\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F199B9-A96E-4B3E-975C-4933A9A3FED9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDB03DB-CD78-4CB4-8D85-7A65771F4E0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="636" windowWidth="16596" windowHeight="11112" xr2:uid="{C01C1A8E-4ADD-40E9-8DA3-9E41321FCE29}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{C01C1A8E-4ADD-40E9-8DA3-9E41321FCE29}"/>
   </bookViews>
   <sheets>
     <sheet name="출석현황" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,30 @@
   </si>
   <si>
     <t>47.5% (40강 중 19강 시청 완료)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;책&gt; Try Helloworld 자바스크립트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45% (333페이지 중 150페이지 독서 완료)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53% (333페이지 중 176페이지 독서 완료)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%(완독)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 게임을 만들며 배우는 자바스크립트(ES2020 리뉴얼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.5% (42강 중 4강 시청 완료)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -107,15 +131,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -123,13 +153,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -139,8 +184,23 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -458,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688B62EA-7724-400C-81CB-8B4B6C6152CA}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -494,35 +554,58 @@
       <c r="A3" s="1">
         <v>44014</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>44015</v>
       </c>
+      <c r="B4" s="2">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>44016</v>
       </c>
+      <c r="B5" s="2">
+        <v>0.3923611111111111</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>44017</v>
       </c>
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>44018</v>
       </c>
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>44019</v>
       </c>
+      <c r="B8" s="2">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
@@ -543,10 +626,10 @@
       <c r="A12" s="1">
         <v>44023</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
@@ -649,9 +732,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -661,35 +746,85 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F85E23-DA72-4155-813F-DE635316BE46}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="32.59765625" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="4">
+        <v>44013</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="4">
+        <v>44015</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="4">
+        <v>44016</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="4">
+        <v>44019</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="4">
+        <v>44019</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:B5"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -701,7 +836,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
